--- a/歷史.xlsx
+++ b/歷史.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\github test\xTaiwanPingLord-s-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD56AE-DC97-420B-9185-AFF6AD30A05C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6E6AC-E51E-4F90-9C80-2AD415C030E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15390" xr2:uid="{99DB1D95-BBFA-415F-B75A-A2DB19F83250}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15396" xr2:uid="{99DB1D95-BBFA-415F-B75A-A2DB19F83250}"/>
   </bookViews>
   <sheets>
     <sheet name="年表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="390">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1439,26 +1439,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>後金汗國建立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遼寧省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赫圖阿拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,10 +1459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>努爾哈赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大順建國</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1495,10 +1479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>當事人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吳三桂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1523,10 +1503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清太宗皇太極</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>努爾哈赤死了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1535,23 +1511,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>順治帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前面引清兵入關</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清兵進入北京/入關首位皇帝/平定南明及李自成大順</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>順治帝入關</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1643~1661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清太宗崇德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清世祖順治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當事人/皇帝+年號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清太祖天命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1661~1722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉天府</t>
+  </si>
+  <si>
+    <t>遼寧省撫順市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼寧省瀋陽市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京順天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一位皇帝死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清聖祖康熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雍正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉慶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸豐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光緒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1722~1735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1796~1820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1820~1850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1850~1861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1861~1875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1875~1908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1909~1911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清世宗雍正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清高宗乾隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仁宗嘉慶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清宣宗道光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清文宗咸豐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清穆宗同治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清德宗光緒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清遜帝宣統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1735~1796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清兵進入北京/入關首位皇帝/平定南明及李自成大順/海禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">奠定疆域規模
+高壓懷柔並行
+小說文學
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平三藩之亂,台灣明鄭/解除海禁/崑興全圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1793英使馬加爾尼/國勢轉衰/一口通商/公行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1816阿美士德/英國販售鴉片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39林則徐禁鴉片/40鴉片戰爭/42南京條約/50太平天國起事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英法聯軍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,18 +1829,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1696,8 +1838,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,10 +1856,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,27 +2179,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C89080-9F42-4962-97FC-ACE9F0CFE5F3}">
-  <dimension ref="A2:K58"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="6" customWidth="1"/>
-    <col min="7" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="12.44140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2077,11 +2232,11 @@
         <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2093,24 +2248,24 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2120,86 +2275,86 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2208,41 +2363,41 @@
       <c r="D8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2254,7 +2409,7 @@
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2276,8 +2431,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2442,7 @@
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
@@ -2307,8 +2462,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2473,7 @@
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
@@ -2338,8 +2493,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -2349,10 +2504,10 @@
       <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2" t="s">
         <v>106</v>
       </c>
@@ -2369,9 +2524,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="6">
@@ -2402,11 +2557,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6">
         <v>-770</v>
       </c>
@@ -2419,11 +2574,11 @@
       <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2431,8 +2586,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>85</v>
       </c>
@@ -2448,9 +2603,9 @@
       <c r="F16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2458,11 +2613,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="6">
@@ -2471,17 +2626,17 @@
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2491,22 +2646,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6">
         <v>-207</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="8" t="s">
         <v>225</v>
       </c>
@@ -2514,8 +2669,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
@@ -2525,15 +2680,15 @@
       <c r="D19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="2" t="s">
         <v>99</v>
       </c>
@@ -2541,9 +2696,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="6">
@@ -2558,13 +2713,13 @@
       <c r="F20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2574,9 +2729,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6">
         <v>-140</v>
       </c>
@@ -2589,9 +2744,9 @@
       <c r="F21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="8" t="s">
         <v>237</v>
       </c>
@@ -2599,8 +2754,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>113</v>
       </c>
@@ -2619,8 +2774,8 @@
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="2" t="s">
         <v>118</v>
       </c>
@@ -2628,8 +2783,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>122</v>
       </c>
@@ -2661,8 +2816,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2674,21 +2829,21 @@
       <c r="D24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="13"/>
       <c r="J24" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2697,10 +2852,10 @@
       <c r="D25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="2" t="s">
         <v>141</v>
       </c>
@@ -2717,19 +2872,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="2" t="s">
         <v>144</v>
       </c>
@@ -2746,8 +2901,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="6" t="s">
         <v>151</v>
       </c>
@@ -2757,15 +2912,15 @@
       <c r="D27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="2" t="s">
         <v>224</v>
       </c>
@@ -2773,8 +2928,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="6" t="s">
         <v>149</v>
       </c>
@@ -2790,9 +2945,9 @@
       <c r="F28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="2" t="s">
         <v>155</v>
       </c>
@@ -2800,8 +2955,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>159</v>
       </c>
@@ -2811,19 +2966,19 @@
       <c r="D29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
       <c r="B30" s="6" t="s">
         <v>167</v>
       </c>
@@ -2833,10 +2988,10 @@
       <c r="D30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="2" t="s">
         <v>166</v>
       </c>
@@ -2853,8 +3008,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
@@ -2864,10 +3019,10 @@
       <c r="D31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="2" t="s">
         <v>143</v>
       </c>
@@ -2884,11 +3039,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2897,10 +3052,10 @@
       <c r="D32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="2" t="s">
         <v>196</v>
       </c>
@@ -2917,19 +3072,19 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="2" t="s">
         <v>166</v>
       </c>
@@ -2946,9 +3101,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
         <v>191</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2957,19 +3112,19 @@
       <c r="D34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="15" t="s">
         <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -2979,22 +3134,22 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="2" t="s">
         <v>198</v>
       </c>
@@ -3002,22 +3157,22 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="2" t="s">
         <v>201</v>
       </c>
@@ -3025,52 +3180,52 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="12" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="20" t="s">
         <v>228</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="6" t="s">
         <v>211</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
         <v>212</v>
       </c>
@@ -3080,15 +3235,15 @@
       <c r="D39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="2" t="s">
         <v>263</v>
       </c>
@@ -3096,52 +3251,52 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="2" t="s">
         <v>242</v>
       </c>
@@ -3158,93 +3313,93 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="14" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="K42" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="14" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="13" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="13" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="16" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="6">
         <v>1127</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="2" t="s">
         <v>266</v>
       </c>
@@ -3261,19 +3416,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="6" t="s">
         <v>273</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="2" t="s">
         <v>274</v>
       </c>
@@ -3290,19 +3445,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="6" t="s">
         <v>284</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="2" t="s">
         <v>281</v>
       </c>
@@ -3316,8 +3471,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
       <c r="B48" s="6" t="s">
         <v>313</v>
       </c>
@@ -3327,10 +3482,10 @@
       <c r="D48" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="2" t="s">
         <v>288</v>
       </c>
@@ -3347,12 +3502,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>18</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>302</v>
@@ -3360,19 +3515,19 @@
       <c r="D49" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="15" t="s">
         <v>321</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="13" t="s">
         <v>308</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -3382,21 +3537,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="6">
         <v>1399</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="2" t="s">
         <v>310</v>
       </c>
@@ -3404,23 +3560,24 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="2" t="s">
         <v>306</v>
       </c>
@@ -3428,21 +3585,22 @@
         <v>316</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="2" t="s">
         <v>320</v>
       </c>
@@ -3450,142 +3608,364 @@
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>325</v>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="C53" s="6">
         <v>1616</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H53" s="9" t="s">
+      <c r="J53" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="K53" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="6">
         <v>1626</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+        <v>337</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" s="13"/>
       <c r="J54" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="6">
         <v>1644</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="13"/>
+      <c r="G56" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="K57" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E58" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
+      <c r="J58" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="2" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
+  <mergeCells count="88">
+    <mergeCell ref="J58:J66"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K9"/>
+    <mergeCell ref="G27:I29"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:I16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="B40:B47"/>
@@ -3599,65 +3979,15 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E42:F43"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K9"/>
-    <mergeCell ref="G27:I29"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G15:I16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A49:A66"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I53:I54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,7 +4003,7 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/歷史.xlsx
+++ b/歷史.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\github test\xTaiwanPingLord-s-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6E6AC-E51E-4F90-9C80-2AD415C030E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3A13B-154B-44B3-AB92-3858260CB609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15396" xr2:uid="{99DB1D95-BBFA-415F-B75A-A2DB19F83250}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="477">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1705,7 +1705,353 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英法聯軍</t>
+    <t>1850~1864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平天國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀全</t>
+  </si>
+  <si>
+    <t>基督教拜上帝會/廣西起事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公有共享,平等,排斥儒家/曾國藩湘軍+李鴻章淮軍/漢人地位提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57第一次英法聯軍,58天津條約,59第二次,60北京條約/俄國侵略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1861~1894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自強運動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平天國/英法聯軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器物層面→成效有限/北洋艦隊/歐美留學/廣方言館,同文館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平定太平天國/牡丹社事件→積極治台/日本明治維新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84中法戰爭/85英國緬甸/94甲午戰爭/95馬關條約,瓜分風潮
+98戊戌變法,政變/00庚子拳亂/01八國聯軍辛丑合約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901~1911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01庚子後新政→廢八股科舉/04日俄戰爭05→立憲運動/11皇族內閣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1894~1912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫中山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲午戰爭失敗救國
+→改革/革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94夏威夷檀香山興中會/05日本東京同盟會/11三二九黃花崗之役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11四川保路運動/五倉起義/12南京中華民國臨時政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一位皇帝死了</t>
+  </si>
+  <si>
+    <t>上一位皇帝死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國大陸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁世凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武昌起義後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國元年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束帝制/臨時約法/臨時大總統/臨時政府遷往北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民4</t>
+  </si>
+  <si>
+    <t>民5</t>
+  </si>
+  <si>
+    <t>宋教仁遇刺→二次革命→失敗/正式大總統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解散國會/廢臨時約法→新約法/孫中山改組中華革命黨/一戰爆發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消帝制/袁世凱去世/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1916~1928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍閥割據民5~17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十一條要求/中華帝國/洪憲帝制/護國軍雲南起義/新文化運動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎段之爭/民6復辟事件/護法運動→失敗/民8五四運動→中國國民黨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1919~1928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民8共產黨/12聯俄容共/14孫中山病逝廣州國民政府/15蔣中正北伐17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民16武漢親共政府/清黨/寧和分裂→南京政府/17濟南慘案→統一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武漢/南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔣中正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1928~1937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年建設黃金十年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍政→訓政/訓政時期約法/以黨治國/關稅自主權/法幣/平民教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北伐完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內憂外患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16國共決裂→成立軍隊,政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1927~1937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19剿共/23兩萬五千里長征/25西安事變/26聯共抗日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1931~1932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本侵華</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20九一八東北淪陷/21一二八進攻上海/21滿洲國以華制華</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1937~1945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八年抗戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26七七事變/淞滬會戰/遷都重慶/南京大屠殺/南京汪兆銘傀儡政權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七事變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30珍珠港/32美英平等新約/開羅會議/34雅爾達會議/34日本投降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本偷襲珍珠港太平洋戰爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1945~1949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國共內戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經濟被戰爭拖垮/中共壯大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重慶會談/馬歇爾調停失敗/36推動憲政,動員戡亂/民38退出大陸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共建國初期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛澤東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國軍兵敗如山倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一黨專政/土地改革/收歸國有/控制思想/蘇聯一邊倒/韓戰抗美援朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1958~1960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大躍進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>達到超英趕美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民公社/土法煉鋼/經濟惡化→死於饑荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1966~1976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1949~1953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化大革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛澤東大躍進失敗下台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅衛兵/破壞傳統倫理及文化/社會動盪/四人幫失勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1971~now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革開放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71聯合國/78四個現代化/經濟特區/79美國建交/89天安門/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1801,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1844,6 +2190,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1853,17 +2202,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C89080-9F42-4962-97FC-ACE9F0CFE5F3}">
-  <dimension ref="A2:K66"/>
+  <dimension ref="A2:AX88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2236,7 +2588,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2248,24 +2600,24 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2275,86 +2627,86 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2363,41 +2715,41 @@
       <c r="D8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2409,7 +2761,7 @@
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2432,7 +2784,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2442,7 +2794,7 @@
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2815,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2473,7 +2825,7 @@
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
@@ -2494,7 +2846,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -2504,10 +2856,10 @@
       <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2" t="s">
         <v>106</v>
       </c>
@@ -2525,8 +2877,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="6">
@@ -2558,10 +2910,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="6">
         <v>-770</v>
       </c>
@@ -2574,11 +2926,11 @@
       <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2939,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6" t="s">
         <v>85</v>
       </c>
@@ -2603,9 +2955,9 @@
       <c r="F16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2614,10 +2966,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="6">
@@ -2626,17 +2978,17 @@
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2647,21 +2999,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="6">
         <v>-207</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8" t="s">
         <v>225</v>
       </c>
@@ -2670,7 +3022,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
@@ -2680,15 +3032,15 @@
       <c r="D19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="2" t="s">
         <v>99</v>
       </c>
@@ -2697,8 +3049,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="6">
@@ -2713,13 +3065,13 @@
       <c r="F20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="14" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2730,8 +3082,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6">
         <v>-140</v>
       </c>
@@ -2744,9 +3096,9 @@
       <c r="F21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="8" t="s">
         <v>237</v>
       </c>
@@ -2755,7 +3107,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>113</v>
       </c>
@@ -2774,8 +3126,8 @@
       <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="2" t="s">
         <v>118</v>
       </c>
@@ -2784,7 +3136,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>122</v>
       </c>
@@ -2817,7 +3169,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2829,21 +3181,21 @@
       <c r="D24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="J24" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2852,10 +3204,10 @@
       <c r="D25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="2" t="s">
         <v>141</v>
       </c>
@@ -2873,18 +3225,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="2" t="s">
         <v>144</v>
       </c>
@@ -2902,7 +3254,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
         <v>151</v>
       </c>
@@ -2912,15 +3264,15 @@
       <c r="D27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="2" t="s">
         <v>224</v>
       </c>
@@ -2929,7 +3281,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6" t="s">
         <v>149</v>
       </c>
@@ -2945,9 +3297,9 @@
       <c r="F28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="2" t="s">
         <v>155</v>
       </c>
@@ -2956,7 +3308,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
         <v>159</v>
       </c>
@@ -2966,19 +3318,19 @@
       <c r="D29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="6" t="s">
         <v>167</v>
       </c>
@@ -2988,10 +3340,10 @@
       <c r="D30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="2" t="s">
         <v>166</v>
       </c>
@@ -3009,7 +3361,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
@@ -3019,10 +3371,10 @@
       <c r="D31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="2" t="s">
         <v>143</v>
       </c>
@@ -3040,10 +3392,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3052,10 +3404,10 @@
       <c r="D32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="2" t="s">
         <v>196</v>
       </c>
@@ -3073,18 +3425,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="2" t="s">
         <v>166</v>
       </c>
@@ -3102,8 +3454,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
         <v>191</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3112,19 +3464,19 @@
       <c r="D34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="14" t="s">
         <v>61</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -3135,21 +3487,21 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="2" t="s">
         <v>198</v>
       </c>
@@ -3158,21 +3510,21 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2" t="s">
         <v>201</v>
       </c>
@@ -3181,22 +3533,22 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="20" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="19" t="s">
         <v>228</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -3204,28 +3556,28 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="6" t="s">
         <v>211</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="6" t="s">
         <v>212</v>
       </c>
@@ -3235,15 +3587,15 @@
       <c r="D39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="2" t="s">
         <v>263</v>
       </c>
@@ -3252,10 +3604,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -3264,10 +3616,10 @@
       <c r="D40" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="11" t="s">
         <v>247</v>
       </c>
@@ -3285,18 +3637,18 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="2" t="s">
         <v>242</v>
       </c>
@@ -3314,18 +3666,18 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="10" t="s">
         <v>256</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="11" t="s">
         <v>257</v>
       </c>
@@ -3335,7 +3687,7 @@
       <c r="I42" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="20" t="s">
         <v>294</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -3343,16 +3695,16 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="10" t="s">
         <v>244</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="9" t="s">
         <v>252</v>
       </c>
@@ -3362,44 +3714,44 @@
       <c r="I43" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="6">
         <v>1127</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="2" t="s">
         <v>266</v>
       </c>
@@ -3417,18 +3769,18 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="6" t="s">
         <v>273</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="2" t="s">
         <v>274</v>
       </c>
@@ -3446,18 +3798,18 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="6" t="s">
         <v>284</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="2" t="s">
         <v>281</v>
       </c>
@@ -3472,7 +3824,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="6" t="s">
         <v>313</v>
       </c>
@@ -3482,10 +3834,10 @@
       <c r="D48" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="2" t="s">
         <v>288</v>
       </c>
@@ -3503,10 +3855,10 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>18</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>323</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -3515,19 +3867,19 @@
       <c r="D49" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>321</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="14" t="s">
         <v>308</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -3538,21 +3890,21 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="6">
         <v>1399</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="2" t="s">
         <v>310</v>
       </c>
@@ -3561,23 +3913,23 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="2" t="s">
         <v>306</v>
       </c>
@@ -3586,21 +3938,21 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="2" t="s">
         <v>320</v>
       </c>
@@ -3609,8 +3961,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14" t="s">
         <v>355</v>
       </c>
       <c r="C53" s="6">
@@ -3619,17 +3971,17 @@
       <c r="D53" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="14" t="s">
         <v>326</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -3640,25 +3992,25 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="6">
         <v>1626</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="4" t="s">
         <v>350</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="I54" s="13"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="2" t="s">
         <v>339</v>
       </c>
@@ -3667,23 +4019,23 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="6" t="s">
         <v>334</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="2" t="s">
         <v>330</v>
       </c>
@@ -3692,46 +4044,46 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="6">
         <v>1644</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="6" t="s">
         <v>343</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="2" t="s">
         <v>341</v>
       </c>
@@ -3740,24 +4092,24 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="6" t="s">
         <v>349</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="16" t="s">
         <v>384</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="13" t="s">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14" t="s">
         <v>354</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -3765,44 +4117,50 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E59" s="13"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="J59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
       <c r="K60" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14" t="s">
         <v>381</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3811,106 +4169,627 @@
       <c r="D61" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="6" t="s">
         <v>367</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
       <c r="K62" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="6" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="2" t="s">
+      <c r="E64" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K64" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="6" t="s">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="2" t="s">
+      <c r="E66" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="6" t="s">
+    <row r="67" spans="1:50" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="2" t="s">
+      <c r="E67" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="6" t="s">
+    <row r="68" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="2" t="s">
+      <c r="E70" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="AX70" s="22"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1912</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C72" s="6">
+        <v>1913</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C73" s="13">
+        <v>1914</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C74" s="13">
+        <v>1915</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C75" s="13">
+        <v>1916</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C76" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C77" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C79" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C81" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C82" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C84" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C85" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C86" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C87" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C88" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="K88" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="J58:J66"/>
+  <mergeCells count="132">
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G85:I88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G81:I83"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G79:I80"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="K77:K84"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G76:I78"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G71:I75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G64:I70"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B49:B52"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G51:I52"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B17:B18"/>
@@ -3920,6 +4799,12 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
@@ -3929,13 +4814,9 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="J3:K9"/>
@@ -3953,10 +4834,6 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G44:J44"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="G39:I39"/>
@@ -3966,20 +4843,14 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I49:I50"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="B40:B47"/>
-    <mergeCell ref="G51:I52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B49:B52"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E42:F43"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A49:A66"/>
+    <mergeCell ref="A49:A70"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E55:F55"/>
@@ -3988,10 +4859,13 @@
     <mergeCell ref="G56:J56"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="I53:I54"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="E58:E60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
